--- a/list_persos.xlsx
+++ b/list_persos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ga\Documents\GitHub\Kaam_proj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EBBD2-7FD5-445D-94E8-ACD92B57584D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="84" windowWidth="15876" windowHeight="5856"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>SÉLI</t>
   </si>
@@ -124,9 +130,6 @@
   </si>
   <si>
     <t>LA FÉE MORGANE</t>
-  </si>
-  <si>
-    <t>LE ROI AFRICAIN</t>
   </si>
   <si>
     <t>PENDRAGON</t>
@@ -267,8 +270,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +308,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +394,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +446,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,229 +639,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -822,18 +869,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -841,73 +888,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -915,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -923,139 +970,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1063,22 +1110,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45">
         <v>0</v>
       </c>
     </row>
@@ -1088,24 +1127,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
